--- a/数据整理/stocks/A股/上证主板/601000-唐山港.xlsx
+++ b/数据整理/stocks/A股/上证主板/601000-唐山港.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519162</t>
+          <t>009608</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>新华增怡债券A</t>
+          <t>广发中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.11</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519163</t>
+          <t>512780</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>新华增怡债券C</t>
+          <t>广发中证京津冀协同发展主题ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.11</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009608</t>
+          <t>519162</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发中证500指数增强A</t>
+          <t>新华增怡债券A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.21</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.69</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>94.19</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.76</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>164825</t>
+          <t>519163</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+          <t>新华增怡债券C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>512780</t>
+          <t>164825</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发中证京津冀协同发展主题ETF</t>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>99.08</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>10</v>
       </c>
     </row>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,26 +824,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004135</t>
+          <t>001244</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>申万菱信量化成长混合</t>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -762,26 +862,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>164811</t>
+          <t>004945</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+          <t>长信中证500指数增强</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -790,26 +900,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>164825</t>
+          <t>512780</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+          <t>广发中证京津冀协同发展主题ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -818,26 +938,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001244</t>
+          <t>004135</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+          <t>申万菱信量化成长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>86.77</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -846,26 +976,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006104</t>
+          <t>164811</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>86.77</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>512780</t>
+          <t>006104</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发中证京津冀协同发展主题ETF</t>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>99.46</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004945</t>
+          <t>164825</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长信中证500指数增强</t>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.88</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601000-唐山港.xlsx
+++ b/数据整理/stocks/A股/上证主板/601000-唐山港.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601000-唐山港.xlsx
+++ b/数据整理/stocks/A股/上证主板/601000-唐山港.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1258,4 +1259,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601000-唐山港.xlsx
+++ b/数据整理/stocks/A股/上证主板/601000-唐山港.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1505,4 +1506,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601000-唐山港.xlsx
+++ b/数据整理/stocks/A股/上证主板/601000-唐山港.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1514,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1525,17 +1526,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1545,14 +1566,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.16</v>
       </c>
     </row>
     <row r="3">
@@ -1561,14 +1604,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1577,14 +1642,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -1593,13 +1764,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601000-唐山港.xlsx
+++ b/数据整理/stocks/A股/上证主板/601000-唐山港.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1685,7 +1686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1696,17 +1697,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1716,14 +1737,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.16</v>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2968</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1732,14 +1775,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.16</v>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3409</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1748,14 +1813,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2941</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1764,14 +1851,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.09</v>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1780,13 +1889,695 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>36.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004258</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>36.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004259</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015406</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合E</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>7</v>
       </c>
       <c r="D6" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601000-唐山港.xlsx
+++ b/数据整理/stocks/A股/上证主板/601000-唐山港.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2460,7 +2461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2471,17 +2472,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2491,14 +2512,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.35</v>
+          <t>014772</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰红利价值一年持有混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2500</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2507,14 +2550,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.16</v>
+          <t>014771</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰红利优选一年持有混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2481</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2523,14 +2588,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.16</v>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2039</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2539,14 +2626,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.01</v>
+          <t>005125</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2555,14 +2664,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.09</v>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2571,13 +2702,183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>7</v>
       </c>
       <c r="D7" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601000-唐山港.xlsx
+++ b/数据整理/stocks/A股/上证主板/601000-唐山港.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.86</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>2.35</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>0.16</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="5">
@@ -536,11 +537,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0.16</v>
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>7</v>
       </c>
       <c r="D8" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -600,6 +617,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合A/B</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4247</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014772</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰红利价值一年持有混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2520</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014771</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰红利优选一年持有混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2470</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014109</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1977</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合A/B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014106</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013611</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013612</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -883,7 +1488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1657,7 +2262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1827,7 +2432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2073,7 +2678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2243,7 +2848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2565,7 +3170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601000-唐山港.xlsx
+++ b/数据整理/stocks/A股/上证主板/601000-唐山港.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>1.41</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.86</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>2.35</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>0.16</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="6">
@@ -553,11 +554,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0.16</v>
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>7</v>
       </c>
       <c r="D9" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -616,7 +633,1221 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519162</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华增怡债券A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519163</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华增怡债券C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0410</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合A/B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4761</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4016</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2563</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014772</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰红利价值一年持有混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2477</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014771</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中泰红利优选一年持有混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2447</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014109</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014106</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合A/B</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003344</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华弘惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013611</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>27.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003343</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华弘惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010545</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中加聚隆六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015558</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010546</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中加聚隆六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013612</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1204,7 +2435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1488,7 +2719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2262,7 +3493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2432,7 +3663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2678,7 +3909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2848,7 +4079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3168,326 +4399,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009608</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0613</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>512780</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发中证京津冀协同发展主题ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.08</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0146</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519162</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>新华增怡债券A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20.11</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009609</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>164811</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519163</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>新华增怡债券C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>20.11</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>164825</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>